--- a/data/pca/factorExposure/factorExposure_2015-02-04.xlsx
+++ b/data/pca/factorExposure/factorExposure_2015-02-04.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,18 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,24 +717,48 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>0.02174737654966796</v>
+        <v>0.01139754778938602</v>
       </c>
       <c r="C2">
-        <v>-0.03654347085473268</v>
+        <v>-0.05242132942473112</v>
       </c>
       <c r="D2">
-        <v>-0.1149917373485372</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.07077527958155264</v>
+      </c>
+      <c r="E2">
+        <v>-0.08343769157514587</v>
+      </c>
+      <c r="F2">
+        <v>0.0487687564348926</v>
+      </c>
+      <c r="G2">
+        <v>-0.14199591461576</v>
+      </c>
+      <c r="H2">
+        <v>0.004160452558844879</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -733,24 +769,48 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>0.04779610390375218</v>
+        <v>0.02110824701741379</v>
       </c>
       <c r="C4">
-        <v>-0.0834289391989531</v>
+        <v>-0.1187760330230554</v>
       </c>
       <c r="D4">
-        <v>-0.07416448680515947</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.07242635117414556</v>
+      </c>
+      <c r="E4">
+        <v>-0.09202586283945449</v>
+      </c>
+      <c r="F4">
+        <v>0.1037433033782965</v>
+      </c>
+      <c r="G4">
+        <v>0.009451479120586874</v>
+      </c>
+      <c r="H4">
+        <v>0.06853388604296015</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +821,308 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>0.03043336113918927</v>
+        <v>0.03487111797352675</v>
       </c>
       <c r="C6">
-        <v>-0.02240557912580176</v>
+        <v>-0.04190327052740819</v>
       </c>
       <c r="D6">
-        <v>-0.08438708767845164</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>-0.06272005381450949</v>
+      </c>
+      <c r="E6">
+        <v>-0.1083877713426208</v>
+      </c>
+      <c r="F6">
+        <v>0.05327576383170436</v>
+      </c>
+      <c r="G6">
+        <v>-8.936933886626668e-05</v>
+      </c>
+      <c r="H6">
+        <v>-0.03488665026449594</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>-0.001671355249252246</v>
+        <v>0.006287627237278052</v>
       </c>
       <c r="C7">
-        <v>-0.03257319909441863</v>
+        <v>-0.04618199041736233</v>
       </c>
       <c r="D7">
-        <v>-0.07075726238090363</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.04067981365541561</v>
+      </c>
+      <c r="E7">
+        <v>-0.09358156782977374</v>
+      </c>
+      <c r="F7">
+        <v>0.01778842587450008</v>
+      </c>
+      <c r="G7">
+        <v>0.01201879673678939</v>
+      </c>
+      <c r="H7">
+        <v>0.02316532757754198</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>0.003709168320985872</v>
+        <v>-0.004242863605766561</v>
       </c>
       <c r="C8">
-        <v>-0.03002012798621807</v>
+        <v>-0.0422480694572222</v>
       </c>
       <c r="D8">
-        <v>-0.06714188270112334</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.03586369797350795</v>
+      </c>
+      <c r="E8">
+        <v>-0.06770230576926776</v>
+      </c>
+      <c r="F8">
+        <v>0.06069554316166105</v>
+      </c>
+      <c r="G8">
+        <v>-0.05050883216208931</v>
+      </c>
+      <c r="H8">
+        <v>0.0579967802536091</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>0.03376492627533556</v>
+        <v>0.01353518716996391</v>
       </c>
       <c r="C9">
-        <v>-0.07425006967293657</v>
+        <v>-0.09771385173819606</v>
       </c>
       <c r="D9">
-        <v>-0.08163675072778971</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.06500128703862941</v>
+      </c>
+      <c r="E9">
+        <v>-0.08029895151052874</v>
+      </c>
+      <c r="F9">
+        <v>0.07483032489114573</v>
+      </c>
+      <c r="G9">
+        <v>0.007316684078498948</v>
+      </c>
+      <c r="H9">
+        <v>0.0154180441602906</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>0.200475124383141</v>
+        <v>0.2431283391397815</v>
       </c>
       <c r="C10">
-        <v>0.1483740932297035</v>
+        <v>0.08675959312656427</v>
       </c>
       <c r="D10">
-        <v>0.04826105326234528</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.008727338398243396</v>
+      </c>
+      <c r="E10">
+        <v>0.02655595027595477</v>
+      </c>
+      <c r="F10">
+        <v>0.03000913058642447</v>
+      </c>
+      <c r="G10">
+        <v>0.01042791449510267</v>
+      </c>
+      <c r="H10">
+        <v>0.001182731445912191</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>0.01089066092594988</v>
+        <v>0.009421108434530204</v>
       </c>
       <c r="C11">
-        <v>-0.04048966314127639</v>
+        <v>-0.06093026516859159</v>
       </c>
       <c r="D11">
-        <v>-0.04137106511241549</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.02338953184555516</v>
+      </c>
+      <c r="E11">
+        <v>-0.05625902061815008</v>
+      </c>
+      <c r="F11">
+        <v>0.005077469200992387</v>
+      </c>
+      <c r="G11">
+        <v>0.01163237735821818</v>
+      </c>
+      <c r="H11">
+        <v>0.007778862946449651</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>0.01006149454057902</v>
+        <v>0.009825464763041487</v>
       </c>
       <c r="C12">
-        <v>-0.04186455754383412</v>
+        <v>-0.05110560931228741</v>
       </c>
       <c r="D12">
-        <v>-0.0496140429230589</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.03013418917003163</v>
+      </c>
+      <c r="E12">
+        <v>-0.04845293165370525</v>
+      </c>
+      <c r="F12">
+        <v>0.002522368568341607</v>
+      </c>
+      <c r="G12">
+        <v>0.001886975595862124</v>
+      </c>
+      <c r="H12">
+        <v>-0.02355208278589185</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>0.01715830280506352</v>
+        <v>0.004094677868780124</v>
       </c>
       <c r="C13">
-        <v>-0.03314259932555917</v>
+        <v>-0.06980110788121427</v>
       </c>
       <c r="D13">
-        <v>-0.1142163669816609</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.1048691109444667</v>
+      </c>
+      <c r="E13">
+        <v>-0.1151073243003757</v>
+      </c>
+      <c r="F13">
+        <v>0.03876468602464732</v>
+      </c>
+      <c r="G13">
+        <v>-0.05720748384834821</v>
+      </c>
+      <c r="H13">
+        <v>-0.07115720210019615</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>-0.007839027380225025</v>
+        <v>0.002909177275160711</v>
       </c>
       <c r="C14">
-        <v>-0.01893942473577614</v>
+        <v>-0.03762271996078585</v>
       </c>
       <c r="D14">
-        <v>-0.05823877701356501</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.0398279066818129</v>
+      </c>
+      <c r="E14">
+        <v>-0.1094563301881005</v>
+      </c>
+      <c r="F14">
+        <v>0.04159800468561958</v>
+      </c>
+      <c r="G14">
+        <v>-0.02190092227717088</v>
+      </c>
+      <c r="H14">
+        <v>-0.03803342401941248</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B15">
-        <v>-0.00193902717046401</v>
+        <v>-0.00475442035821975</v>
       </c>
       <c r="C15">
-        <v>-0.01202370150177284</v>
+        <v>-0.03421833996372919</v>
       </c>
       <c r="D15">
-        <v>-0.05146084823300467</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>-0.04392944880708267</v>
+      </c>
+      <c r="E15">
+        <v>-0.06385567862238173</v>
+      </c>
+      <c r="F15">
+        <v>0.01657148666678669</v>
+      </c>
+      <c r="G15">
+        <v>-0.01742096404680513</v>
+      </c>
+      <c r="H15">
+        <v>0.009676333849813597</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>0.01031818724848704</v>
+        <v>0.00903026256358622</v>
       </c>
       <c r="C16">
-        <v>-0.03992172028539751</v>
+        <v>-0.05328572167930251</v>
       </c>
       <c r="D16">
-        <v>-0.04504300997974549</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.02605971132098549</v>
+      </c>
+      <c r="E16">
+        <v>-0.05189463328620152</v>
+      </c>
+      <c r="F16">
+        <v>0.002298811783313739</v>
+      </c>
+      <c r="G16">
+        <v>0.02405361227649908</v>
+      </c>
+      <c r="H16">
+        <v>-0.00654791031977494</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1133,22 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1159,230 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>0.00448055909995137</v>
+        <v>0.0003337156887821437</v>
       </c>
       <c r="C19">
-        <v>-0.01900614614927211</v>
+        <v>-0.01548736921872205</v>
       </c>
       <c r="D19">
-        <v>-0.04514075965128387</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>-0.02174759924310257</v>
+      </c>
+      <c r="E19">
+        <v>-0.008812666171408072</v>
+      </c>
+      <c r="F19">
+        <v>0.005592251195456948</v>
+      </c>
+      <c r="G19">
+        <v>-0.0298232146918412</v>
+      </c>
+      <c r="H19">
+        <v>-0.003145209082792753</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>0.002171648690935777</v>
+        <v>0.003792198143427001</v>
       </c>
       <c r="C20">
-        <v>-0.02806705482432819</v>
+        <v>-0.05081065268215965</v>
       </c>
       <c r="D20">
-        <v>-0.05381698981488554</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.05004987943887083</v>
+      </c>
+      <c r="E20">
+        <v>-0.07358660926568558</v>
+      </c>
+      <c r="F20">
+        <v>0.02862412456270176</v>
+      </c>
+      <c r="G20">
+        <v>0.02415681412799187</v>
+      </c>
+      <c r="H20">
+        <v>0.01095796936642935</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>0.008389861138648383</v>
+        <v>0.004206664831120003</v>
       </c>
       <c r="C21">
-        <v>-0.03669053498226445</v>
+        <v>-0.05347610425564965</v>
       </c>
       <c r="D21">
-        <v>-0.0831541275040877</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.07067624457304703</v>
+      </c>
+      <c r="E21">
+        <v>-0.08909980964212794</v>
+      </c>
+      <c r="F21">
+        <v>0.1004289729979294</v>
+      </c>
+      <c r="G21">
+        <v>-0.0932095681103402</v>
+      </c>
+      <c r="H21">
+        <v>-0.07446449645853144</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B22">
-        <v>0.004486611131167932</v>
+        <v>-0.01000631731896507</v>
       </c>
       <c r="C22">
-        <v>-0.05866799286454625</v>
+        <v>-0.08661344138737173</v>
       </c>
       <c r="D22">
-        <v>-0.1948349004981325</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.1808934541483873</v>
+      </c>
+      <c r="E22">
+        <v>-0.1500575797904744</v>
+      </c>
+      <c r="F22">
+        <v>0.09104602090667845</v>
+      </c>
+      <c r="G22">
+        <v>-0.1750274640415821</v>
+      </c>
+      <c r="H22">
+        <v>0.2252445414361824</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B23">
-        <v>0.00447418933755502</v>
+        <v>-0.006973104591467875</v>
       </c>
       <c r="C23">
-        <v>-0.05960396120593355</v>
+        <v>-0.08876894397439783</v>
       </c>
       <c r="D23">
-        <v>-0.1939007942391922</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.1844997591759056</v>
+      </c>
+      <c r="E23">
+        <v>-0.1476797467918654</v>
+      </c>
+      <c r="F23">
+        <v>0.09320902266800468</v>
+      </c>
+      <c r="G23">
+        <v>-0.1712809898084369</v>
+      </c>
+      <c r="H23">
+        <v>0.215898108152965</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>0.01667437433974938</v>
+        <v>0.01052761768103757</v>
       </c>
       <c r="C24">
-        <v>-0.05989896646748653</v>
+        <v>-0.07033061662942279</v>
       </c>
       <c r="D24">
-        <v>-0.05647915860952674</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.02202222440843063</v>
+      </c>
+      <c r="E24">
+        <v>-0.06185575004231111</v>
+      </c>
+      <c r="F24">
+        <v>0.006057400064787095</v>
+      </c>
+      <c r="G24">
+        <v>0.001353847853763136</v>
+      </c>
+      <c r="H24">
+        <v>0.001599392458790715</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>0.01651875790742116</v>
+        <v>0.01418361948889861</v>
       </c>
       <c r="C25">
-        <v>-0.05180302873452122</v>
+        <v>-0.06472062177590371</v>
       </c>
       <c r="D25">
-        <v>-0.04359396198662072</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.02718044840233413</v>
+      </c>
+      <c r="E25">
+        <v>-0.04508580487546756</v>
+      </c>
+      <c r="F25">
+        <v>0.007815343180314498</v>
+      </c>
+      <c r="G25">
+        <v>0.0143410746280358</v>
+      </c>
+      <c r="H25">
+        <v>0.0008718432782786002</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>0.008827151634515465</v>
+        <v>0.01632644306700954</v>
       </c>
       <c r="C26">
-        <v>-0.01711422935936054</v>
+        <v>-0.03722984224729724</v>
       </c>
       <c r="D26">
-        <v>-0.04888367952605978</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.02151812418667045</v>
+      </c>
+      <c r="E26">
+        <v>-0.08356868460128031</v>
+      </c>
+      <c r="F26">
+        <v>0.05748867250227285</v>
+      </c>
+      <c r="G26">
+        <v>-0.02319575701487347</v>
+      </c>
+      <c r="H26">
+        <v>0.00506952372617563</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,136 +1393,256 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>0.2791023439340516</v>
+        <v>0.3122451333433502</v>
       </c>
       <c r="C28">
-        <v>0.1632632999968555</v>
+        <v>0.09356854145935535</v>
       </c>
       <c r="D28">
-        <v>0.01523650518548528</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>-0.004106892180836644</v>
+      </c>
+      <c r="E28">
+        <v>0.05582902686944754</v>
+      </c>
+      <c r="F28">
+        <v>0.05113347907801059</v>
+      </c>
+      <c r="G28">
+        <v>-0.04867832347955962</v>
+      </c>
+      <c r="H28">
+        <v>0.06058742895121908</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>0.001571224263625416</v>
+        <v>0.002676183400764386</v>
       </c>
       <c r="C29">
-        <v>-0.02261559058310586</v>
+        <v>-0.04363570649550744</v>
       </c>
       <c r="D29">
-        <v>-0.0616047781691756</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.04481020316823008</v>
+      </c>
+      <c r="E29">
+        <v>-0.1201427533435487</v>
+      </c>
+      <c r="F29">
+        <v>0.04496837712556695</v>
+      </c>
+      <c r="G29">
+        <v>-0.01192351436560764</v>
+      </c>
+      <c r="H29">
+        <v>-0.05354985488365829</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>0.02703060240748154</v>
+        <v>0.01682902004790278</v>
       </c>
       <c r="C30">
-        <v>-0.0767431122330557</v>
+        <v>-0.1038155321800633</v>
       </c>
       <c r="D30">
-        <v>-0.1352240928247329</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.07858573679952156</v>
+      </c>
+      <c r="E30">
+        <v>-0.1367353480914685</v>
+      </c>
+      <c r="F30">
+        <v>0.03138966089799725</v>
+      </c>
+      <c r="G30">
+        <v>0.007595615102811522</v>
+      </c>
+      <c r="H30">
+        <v>0.02068536117818059</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>0.03071257220325129</v>
+        <v>0.01034525664055171</v>
       </c>
       <c r="C31">
-        <v>-0.089769795190517</v>
+        <v>-0.0983585972229134</v>
       </c>
       <c r="D31">
-        <v>-0.04160881061430946</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.0128818053997712</v>
+      </c>
+      <c r="E31">
+        <v>-0.02960355542333302</v>
+      </c>
+      <c r="F31">
+        <v>0.01621272529053688</v>
+      </c>
+      <c r="G31">
+        <v>-0.02215770724554316</v>
+      </c>
+      <c r="H31">
+        <v>0.0133455303611576</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>0.01902342581560255</v>
+        <v>0.01304907493881444</v>
       </c>
       <c r="C32">
-        <v>-0.04121742949522041</v>
+        <v>-0.0556840955542824</v>
       </c>
       <c r="D32">
-        <v>-0.0796878989758087</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.07488346725880422</v>
+      </c>
+      <c r="E32">
+        <v>-0.03680592981669868</v>
+      </c>
+      <c r="F32">
+        <v>0.06924123919306543</v>
+      </c>
+      <c r="G32">
+        <v>-0.04751488692519363</v>
+      </c>
+      <c r="H32">
+        <v>-0.01141512049474276</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>0.005916115358771475</v>
+        <v>0.007869889244452316</v>
       </c>
       <c r="C33">
-        <v>-0.04581008648492318</v>
+        <v>-0.07026755905305798</v>
       </c>
       <c r="D33">
-        <v>-0.08173957379037901</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.06979737670765221</v>
+      </c>
+      <c r="E33">
+        <v>-0.09399616563758055</v>
+      </c>
+      <c r="F33">
+        <v>0.04243326025754508</v>
+      </c>
+      <c r="G33">
+        <v>-0.006274489149601321</v>
+      </c>
+      <c r="H33">
+        <v>-0.004392472397859714</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>0.01157864339961305</v>
+        <v>0.008711889003924762</v>
       </c>
       <c r="C34">
-        <v>-0.05959497657337681</v>
+        <v>-0.06169199586424306</v>
       </c>
       <c r="D34">
-        <v>-0.05971490429917084</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.01333136244329922</v>
+      </c>
+      <c r="E34">
+        <v>-0.04716010846283303</v>
+      </c>
+      <c r="F34">
+        <v>-0.0251201349042805</v>
+      </c>
+      <c r="G34">
+        <v>-0.005896041611464469</v>
+      </c>
+      <c r="H34">
+        <v>-0.009310129600453465</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B35">
-        <v>0.000668179827182513</v>
+        <v>0.004214352414629501</v>
       </c>
       <c r="C35">
-        <v>-0.0003851373163343739</v>
+        <v>-0.01776035064633621</v>
       </c>
       <c r="D35">
-        <v>-0.003805964423534283</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>-0.02273372596270131</v>
+      </c>
+      <c r="E35">
+        <v>-0.03510516348568258</v>
+      </c>
+      <c r="F35">
+        <v>0.02704406788880317</v>
+      </c>
+      <c r="G35">
+        <v>0.004064460687753857</v>
+      </c>
+      <c r="H35">
+        <v>-0.01784389091168213</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>0.006436232290860303</v>
+        <v>0.01055003593400953</v>
       </c>
       <c r="C36">
-        <v>-0.017257034868384</v>
+        <v>-0.03053546445513993</v>
       </c>
       <c r="D36">
-        <v>-0.04156282491696059</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.0306422572104703</v>
+      </c>
+      <c r="E36">
+        <v>-0.06837104944313017</v>
+      </c>
+      <c r="F36">
+        <v>0.05089807530784091</v>
+      </c>
+      <c r="G36">
+        <v>-0.01420354419200496</v>
+      </c>
+      <c r="H36">
+        <v>-4.8808692317745e-05</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,66 +1653,126 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>0.002430227900635068</v>
+        <v>0.007194391941288535</v>
       </c>
       <c r="C38">
-        <v>-0.01028668031315703</v>
+        <v>-0.03022503718045844</v>
       </c>
       <c r="D38">
-        <v>-0.07103892711029904</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>-0.059962771095481</v>
+      </c>
+      <c r="E38">
+        <v>-0.07433472551010283</v>
+      </c>
+      <c r="F38">
+        <v>0.02013280106811954</v>
+      </c>
+      <c r="G38">
+        <v>-0.01536075941558746</v>
+      </c>
+      <c r="H38">
+        <v>0.04889064958538519</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>0.01681371756353331</v>
+        <v>0.008576425132938471</v>
       </c>
       <c r="C39">
-        <v>-0.06479879556955967</v>
+        <v>-0.09453055117848251</v>
       </c>
       <c r="D39">
-        <v>-0.09758821355479083</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.04254916622753637</v>
+      </c>
+      <c r="E39">
+        <v>-0.1146454284782258</v>
+      </c>
+      <c r="F39">
+        <v>-0.001439736160959069</v>
+      </c>
+      <c r="G39">
+        <v>0.01011129957348157</v>
+      </c>
+      <c r="H39">
+        <v>-0.02154608656566713</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>0.01508492843953993</v>
+        <v>0.01327917755876179</v>
       </c>
       <c r="C40">
-        <v>-0.02923223793353378</v>
+        <v>-0.0457207447910117</v>
       </c>
       <c r="D40">
-        <v>-0.1060923079631767</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.05781906381243019</v>
+      </c>
+      <c r="E40">
+        <v>-0.09297728398032119</v>
+      </c>
+      <c r="F40">
+        <v>-0.01989654519677125</v>
+      </c>
+      <c r="G40">
+        <v>-0.06740876910672502</v>
+      </c>
+      <c r="H40">
+        <v>-0.006013215132634338</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>0.008060922513937377</v>
+        <v>0.01616369032336</v>
       </c>
       <c r="C41">
-        <v>-0.01103334603831728</v>
+        <v>-0.02881227664721772</v>
       </c>
       <c r="D41">
-        <v>-0.02011090398797115</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.02664896700034747</v>
+      </c>
+      <c r="E41">
+        <v>-0.02697307154403097</v>
+      </c>
+      <c r="F41">
+        <v>0.01677198411154365</v>
+      </c>
+      <c r="G41">
+        <v>0.0003154737836102765</v>
+      </c>
+      <c r="H41">
+        <v>0.005534446895803625</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1783,74 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>-0.004178279847755263</v>
+        <v>0.0076521387430504</v>
       </c>
       <c r="C43">
-        <v>-0.007736088695844152</v>
+        <v>-0.02248243389714269</v>
       </c>
       <c r="D43">
-        <v>-0.03476123289151067</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.03182151326801656</v>
+      </c>
+      <c r="E43">
+        <v>-0.04242995728175293</v>
+      </c>
+      <c r="F43">
+        <v>0.02252444056281244</v>
+      </c>
+      <c r="G43">
+        <v>0.004339829897110046</v>
+      </c>
+      <c r="H43">
+        <v>0.01197220354254008</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>0.01838379029185084</v>
+        <v>0.008327945384336873</v>
       </c>
       <c r="C44">
-        <v>-0.03493345500871034</v>
+        <v>-0.05743714573708991</v>
       </c>
       <c r="D44">
-        <v>-0.08191798590013658</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.06154423856783808</v>
+      </c>
+      <c r="E44">
+        <v>-0.1055957469222027</v>
+      </c>
+      <c r="F44">
+        <v>0.04849814105257574</v>
+      </c>
+      <c r="G44">
+        <v>-0.02188589264606051</v>
+      </c>
+      <c r="H44">
+        <v>0.0242241792758906</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,94 +1861,178 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>0.003450253000088507</v>
+        <v>9.795269475915796e-05</v>
       </c>
       <c r="C46">
-        <v>-0.03291362623038456</v>
+        <v>-0.04584604631108267</v>
       </c>
       <c r="D46">
-        <v>-0.06410146506136657</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.02859147664058974</v>
+      </c>
+      <c r="E46">
+        <v>-0.09263261666520817</v>
+      </c>
+      <c r="F46">
+        <v>0.04248883139550235</v>
+      </c>
+      <c r="G46">
+        <v>-0.02098429492385042</v>
+      </c>
+      <c r="H46">
+        <v>-0.007907303327559245</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>0.06511873757267769</v>
+        <v>0.02910784836555309</v>
       </c>
       <c r="C47">
-        <v>-0.1172214704211452</v>
+        <v>-0.1257089815440124</v>
       </c>
       <c r="D47">
-        <v>-0.0478870498442498</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.01267996936470971</v>
+      </c>
+      <c r="E47">
+        <v>-0.003960698457563736</v>
+      </c>
+      <c r="F47">
+        <v>-0.0003822249377890362</v>
+      </c>
+      <c r="G47">
+        <v>-0.0008854669464137824</v>
+      </c>
+      <c r="H47">
+        <v>0.02226641385649115</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>0.006254366472917918</v>
+        <v>0.01259741156386074</v>
       </c>
       <c r="C48">
-        <v>-0.02035367671682734</v>
+        <v>-0.03737818969726835</v>
       </c>
       <c r="D48">
-        <v>-0.04552259950149968</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.03791906630245052</v>
+      </c>
+      <c r="E48">
+        <v>-0.07347664562063853</v>
+      </c>
+      <c r="F48">
+        <v>0.06825625500947012</v>
+      </c>
+      <c r="G48">
+        <v>-0.01884030910401739</v>
+      </c>
+      <c r="H48">
+        <v>0.01163944586584553</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B49">
-        <v>0</v>
+        <v>0.002793067928619045</v>
       </c>
       <c r="C49">
-        <v>0</v>
+        <v>-0.005762942560929462</v>
       </c>
       <c r="D49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>-0.00277775816897143</v>
+      </c>
+      <c r="E49">
+        <v>-0.001748309589487826</v>
+      </c>
+      <c r="F49">
+        <v>-0.009207388365261719</v>
+      </c>
+      <c r="G49">
+        <v>0.01073137555020551</v>
+      </c>
+      <c r="H49">
+        <v>-0.01543124558601305</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>0.03097322129673558</v>
+        <v>0.01371661372445303</v>
       </c>
       <c r="C50">
-        <v>-0.06283766854398067</v>
+        <v>-0.07919717809908371</v>
       </c>
       <c r="D50">
-        <v>-0.06024620264308031</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.02885246796283012</v>
+      </c>
+      <c r="E50">
+        <v>-0.04098493079096655</v>
+      </c>
+      <c r="F50">
+        <v>0.01248258589901664</v>
+      </c>
+      <c r="G50">
+        <v>-0.01475457344383509</v>
+      </c>
+      <c r="H50">
+        <v>0.02937758898260349</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>0.007730103143488858</v>
+        <v>-0.004629478643632255</v>
       </c>
       <c r="C51">
-        <v>-0.007254291068887021</v>
+        <v>-0.02182860186726049</v>
       </c>
       <c r="D51">
-        <v>-0.05180503576410452</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>-0.01602878929433616</v>
+      </c>
+      <c r="E51">
+        <v>-0.06464870531567724</v>
+      </c>
+      <c r="F51">
+        <v>0.03906812918800003</v>
+      </c>
+      <c r="G51">
+        <v>-0.03386700223967527</v>
+      </c>
+      <c r="H51">
+        <v>0.001497721668004454</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,66 +2043,126 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>0.09908178405845082</v>
+        <v>0.05939692970924007</v>
       </c>
       <c r="C53">
-        <v>-0.1398512236844071</v>
+        <v>-0.1635450945624632</v>
       </c>
       <c r="D53">
-        <v>0.008852343939223375</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>0.01906016330662062</v>
+      </c>
+      <c r="E53">
+        <v>0.03660956109966988</v>
+      </c>
+      <c r="F53">
+        <v>0.0314145887162979</v>
+      </c>
+      <c r="G53">
+        <v>-0.007383173443420085</v>
+      </c>
+      <c r="H53">
+        <v>0.01057991831969857</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>0.005933231306846445</v>
+        <v>0.01074521256426733</v>
       </c>
       <c r="C54">
-        <v>-0.02705763371935479</v>
+        <v>-0.04450329504329039</v>
       </c>
       <c r="D54">
-        <v>-0.08233866237478467</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.05687147648109943</v>
+      </c>
+      <c r="E54">
+        <v>-0.07138582888120368</v>
+      </c>
+      <c r="F54">
+        <v>0.02183300437548901</v>
+      </c>
+      <c r="G54">
+        <v>-0.01332256384934091</v>
+      </c>
+      <c r="H54">
+        <v>0.0202022545676787</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>0.08250477040387216</v>
+        <v>0.04083529170644695</v>
       </c>
       <c r="C55">
-        <v>-0.1165002411440609</v>
+        <v>-0.1275174495462433</v>
       </c>
       <c r="D55">
-        <v>0.001958760210524332</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>0.05067098011542907</v>
+      </c>
+      <c r="E55">
+        <v>0.02407499802433002</v>
+      </c>
+      <c r="F55">
+        <v>-0.007002114400479099</v>
+      </c>
+      <c r="G55">
+        <v>-0.03039179073607835</v>
+      </c>
+      <c r="H55">
+        <v>0.0150226110987059</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>0.1220715428781436</v>
+        <v>0.06112302077461612</v>
       </c>
       <c r="C56">
-        <v>-0.1657693015826786</v>
+        <v>-0.1913244082190206</v>
       </c>
       <c r="D56">
-        <v>-0.01956949901681312</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.04136762824126904</v>
+      </c>
+      <c r="E56">
+        <v>0.05122366511253556</v>
+      </c>
+      <c r="F56">
+        <v>-0.01396162324435764</v>
+      </c>
+      <c r="G56">
+        <v>-0.0730819241988995</v>
+      </c>
+      <c r="H56">
+        <v>0.03772632263022172</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,178 +2173,334 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>0.01363627906089899</v>
+        <v>0.009386495574215137</v>
       </c>
       <c r="C58">
-        <v>-0.03165458576205188</v>
+        <v>-0.08072565756004715</v>
       </c>
       <c r="D58">
-        <v>-0.1717822300732458</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.1925582251456575</v>
+      </c>
+      <c r="E58">
+        <v>-0.1515547718481353</v>
+      </c>
+      <c r="F58">
+        <v>0.1556180366039674</v>
+      </c>
+      <c r="G58">
+        <v>-0.1184742666564764</v>
+      </c>
+      <c r="H58">
+        <v>0.1395544756395803</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>0.2099704728371493</v>
+        <v>0.2621230763937863</v>
       </c>
       <c r="C59">
-        <v>0.1186741134089288</v>
+        <v>0.05513325975261935</v>
       </c>
       <c r="D59">
-        <v>-0.04434737939003196</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>-0.0445822663221123</v>
+      </c>
+      <c r="E59">
+        <v>-0.002284708798157632</v>
+      </c>
+      <c r="F59">
+        <v>0.02308919470570779</v>
+      </c>
+      <c r="G59">
+        <v>-0.04144746179005606</v>
+      </c>
+      <c r="H59">
+        <v>-0.02232152373669965</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>0.1643946674484245</v>
+        <v>0.151350214446076</v>
       </c>
       <c r="C60">
-        <v>-0.1151609259354218</v>
+        <v>-0.1636989110118537</v>
       </c>
       <c r="D60">
-        <v>-0.12149043177851</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.01728000834716304</v>
+      </c>
+      <c r="E60">
+        <v>-0.1127246740017716</v>
+      </c>
+      <c r="F60">
+        <v>-0.1820365266809917</v>
+      </c>
+      <c r="G60">
+        <v>0.1848361071031237</v>
+      </c>
+      <c r="H60">
+        <v>-0.2051989699156692</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>0.01948811202692714</v>
+        <v>0.01381188088408958</v>
       </c>
       <c r="C61">
-        <v>-0.05753609079060078</v>
+        <v>-0.0812061623699325</v>
       </c>
       <c r="D61">
-        <v>-0.06868397241661391</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.03180062429713539</v>
+      </c>
+      <c r="E61">
+        <v>-0.07995846161122758</v>
+      </c>
+      <c r="F61">
+        <v>0.003289738253219833</v>
+      </c>
+      <c r="G61">
+        <v>0.002549664103721502</v>
+      </c>
+      <c r="H61">
+        <v>-0.007206365088555616</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B62">
-        <v>0</v>
+        <v>-0.0002637921031513552</v>
       </c>
       <c r="C62">
-        <v>0</v>
+        <v>-1.418279313891995e-05</v>
       </c>
       <c r="D62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>0.0001323548550539208</v>
+      </c>
+      <c r="E62">
+        <v>-0.0004918521875631589</v>
+      </c>
+      <c r="F62">
+        <v>0.001027609191838023</v>
+      </c>
+      <c r="G62">
+        <v>-0.0006750242086329056</v>
+      </c>
+      <c r="H62">
+        <v>0.001388550069921292</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>0.009070863901225688</v>
+        <v>0.01577333477373418</v>
       </c>
       <c r="C63">
-        <v>-0.03101104651162116</v>
+        <v>-0.05093082767647756</v>
       </c>
       <c r="D63">
-        <v>-0.06377896834267507</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.01864615831033763</v>
+      </c>
+      <c r="E63">
+        <v>-0.09564579412932753</v>
+      </c>
+      <c r="F63">
+        <v>0.028507888501746</v>
+      </c>
+      <c r="G63">
+        <v>0.002034954365185214</v>
+      </c>
+      <c r="H63">
+        <v>-0.003149647185617763</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>0.04299066858619185</v>
+        <v>0.01476352136168957</v>
       </c>
       <c r="C64">
-        <v>-0.09610858090487791</v>
+        <v>-0.1022402328146479</v>
       </c>
       <c r="D64">
-        <v>-0.01540813877866234</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.0004070031960025353</v>
+      </c>
+      <c r="E64">
+        <v>-0.03105040839644077</v>
+      </c>
+      <c r="F64">
+        <v>0.02835558816797009</v>
+      </c>
+      <c r="G64">
+        <v>0.03315989396018066</v>
+      </c>
+      <c r="H64">
+        <v>0.01383031494916345</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>0.0264046962031912</v>
+        <v>0.02725739055250642</v>
       </c>
       <c r="C65">
-        <v>-0.02010750756468372</v>
+        <v>-0.04948729248238436</v>
       </c>
       <c r="D65">
-        <v>-0.08573833240693074</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>-0.0750647250107221</v>
+      </c>
+      <c r="E65">
+        <v>-0.09816350895587382</v>
+      </c>
+      <c r="F65">
+        <v>-0.003328242503780157</v>
+      </c>
+      <c r="G65">
+        <v>0.0670253480485775</v>
+      </c>
+      <c r="H65">
+        <v>-0.0209937233904163</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>0.02296012594812039</v>
+        <v>0.009416881432660368</v>
       </c>
       <c r="C66">
-        <v>-0.07570151423908837</v>
+        <v>-0.1144853782248918</v>
       </c>
       <c r="D66">
-        <v>-0.1202008637766186</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.07262877167188338</v>
+      </c>
+      <c r="E66">
+        <v>-0.1182490536345247</v>
+      </c>
+      <c r="F66">
+        <v>0.006974096931505996</v>
+      </c>
+      <c r="G66">
+        <v>-0.011287467332724</v>
+      </c>
+      <c r="H66">
+        <v>0.003596235992051086</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>0.01424755520045734</v>
+        <v>0.01602211855031225</v>
       </c>
       <c r="C67">
-        <v>-0.01838161472574175</v>
+        <v>-0.03511285404991998</v>
       </c>
       <c r="D67">
-        <v>-0.04096282690253503</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.0289982418517134</v>
+      </c>
+      <c r="E67">
+        <v>-0.05239290945036077</v>
+      </c>
+      <c r="F67">
+        <v>-0.01102771124074255</v>
+      </c>
+      <c r="G67">
+        <v>0.0004693060843918787</v>
+      </c>
+      <c r="H67">
+        <v>0.03327509284709831</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>0.222582939291352</v>
+        <v>0.2796049795076593</v>
       </c>
       <c r="C68">
-        <v>0.1318008006824569</v>
+        <v>0.06662296365283732</v>
       </c>
       <c r="D68">
-        <v>-0.02533664120963624</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>-0.03397213701659152</v>
+      </c>
+      <c r="E68">
+        <v>-0.02502956838675698</v>
+      </c>
+      <c r="F68">
+        <v>0.03279241635251607</v>
+      </c>
+      <c r="G68">
+        <v>-0.03639734259075066</v>
+      </c>
+      <c r="H68">
+        <v>0.0247165919328825</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>0.04705430866001492</v>
+        <v>0.01344347757861648</v>
       </c>
       <c r="C69">
-        <v>-0.1204542384937397</v>
+        <v>-0.1118208126365962</v>
       </c>
       <c r="D69">
-        <v>-0.06305276460809224</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.01060769184774296</v>
+      </c>
+      <c r="E69">
+        <v>-0.0155048940088552</v>
+      </c>
+      <c r="F69">
+        <v>-0.008146608172991936</v>
+      </c>
+      <c r="G69">
+        <v>-0.007790563733976149</v>
+      </c>
+      <c r="H69">
+        <v>-0.00134135247283998</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,360 +2511,672 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>0.235599621162676</v>
+        <v>0.2690926029378635</v>
       </c>
       <c r="C71">
-        <v>0.1508854688283436</v>
+        <v>0.08102808590936884</v>
       </c>
       <c r="D71">
-        <v>-0.01498017281485361</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>-0.01268649079172769</v>
+      </c>
+      <c r="E71">
+        <v>-0.001774586456040522</v>
+      </c>
+      <c r="F71">
+        <v>0.01424097874183461</v>
+      </c>
+      <c r="G71">
+        <v>-0.03551255953342394</v>
+      </c>
+      <c r="H71">
+        <v>0.04046169769963014</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>0.09734249589707035</v>
+        <v>0.06548380022078334</v>
       </c>
       <c r="C72">
-        <v>-0.08529861728007872</v>
+        <v>-0.1267497138026755</v>
       </c>
       <c r="D72">
-        <v>-0.08687271391546465</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>-0.01937105869868688</v>
+      </c>
+      <c r="E72">
+        <v>-0.08636628495433926</v>
+      </c>
+      <c r="F72">
+        <v>-0.0124200227981312</v>
+      </c>
+      <c r="G72">
+        <v>0.04104070490568434</v>
+      </c>
+      <c r="H72">
+        <v>-0.02013416225710322</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>0.1695341056071124</v>
+        <v>0.1580016810031581</v>
       </c>
       <c r="C73">
-        <v>-0.09164467179955622</v>
+        <v>-0.1710342719844783</v>
       </c>
       <c r="D73">
-        <v>-0.1748731437615673</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>0.01653893671670488</v>
+      </c>
+      <c r="E73">
+        <v>-0.2516523280516787</v>
+      </c>
+      <c r="F73">
+        <v>-0.3118893315147016</v>
+      </c>
+      <c r="G73">
+        <v>0.3342703939715166</v>
+      </c>
+      <c r="H73">
+        <v>-0.2641937901388794</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>0.09247096260310272</v>
+        <v>0.05022017334558679</v>
       </c>
       <c r="C74">
-        <v>-0.1248856012958692</v>
+        <v>-0.1394802276857419</v>
       </c>
       <c r="D74">
-        <v>0.0567173963266374</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>0.04328670315540072</v>
+      </c>
+      <c r="E74">
+        <v>0.05160296250492517</v>
+      </c>
+      <c r="F74">
+        <v>0.02925603062607897</v>
+      </c>
+      <c r="G74">
+        <v>-0.008839783969433893</v>
+      </c>
+      <c r="H74">
+        <v>0.01479295310716886</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>0.2019749521165002</v>
+        <v>0.09779511760783263</v>
       </c>
       <c r="C75">
-        <v>-0.2197008249562359</v>
+        <v>-0.2554489783074527</v>
       </c>
       <c r="D75">
-        <v>0.02991139991931586</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>0.08566452781387179</v>
+      </c>
+      <c r="E75">
+        <v>0.145106195706186</v>
+      </c>
+      <c r="F75">
+        <v>-0.07492218525766044</v>
+      </c>
+      <c r="G75">
+        <v>-0.09364006688452345</v>
+      </c>
+      <c r="H75">
+        <v>0.1472872822223204</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>0.1236368693562922</v>
+        <v>0.06050600882990381</v>
       </c>
       <c r="C76">
-        <v>-0.1526755092229487</v>
+        <v>-0.1784323994510912</v>
       </c>
       <c r="D76">
-        <v>-0.008619671159720963</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>0.04234074044466054</v>
+      </c>
+      <c r="E76">
+        <v>0.05279583325706876</v>
+      </c>
+      <c r="F76">
+        <v>-0.02586648507106041</v>
+      </c>
+      <c r="G76">
+        <v>-0.04795347244921072</v>
+      </c>
+      <c r="H76">
+        <v>0.02329293710467865</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>0.004980556597782226</v>
+        <v>0.002273363358448743</v>
       </c>
       <c r="C77">
-        <v>-0.0855029235759447</v>
+        <v>-0.1278273215290151</v>
       </c>
       <c r="D77">
-        <v>-0.219318863366557</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.7614063251511886</v>
+      </c>
+      <c r="E77">
+        <v>0.5500701460065028</v>
+      </c>
+      <c r="F77">
+        <v>-0.1304706898753608</v>
+      </c>
+      <c r="G77">
+        <v>0.1764501428730701</v>
+      </c>
+      <c r="H77">
+        <v>-0.04848278935317502</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>0.03624386015527104</v>
+        <v>0.02553776107118976</v>
       </c>
       <c r="C78">
-        <v>-0.07727929766442974</v>
+        <v>-0.09834168144845572</v>
       </c>
       <c r="D78">
-        <v>-0.1360890978068195</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.04511154400723415</v>
+      </c>
+      <c r="E78">
+        <v>-0.1059241222014609</v>
+      </c>
+      <c r="F78">
+        <v>0.05077720198831416</v>
+      </c>
+      <c r="G78">
+        <v>-0.09041965766587082</v>
+      </c>
+      <c r="H78">
+        <v>-0.007550520306214196</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B79">
-        <v>0.1074055480672912</v>
+        <v>0.05394622403962007</v>
       </c>
       <c r="C79">
-        <v>-0.2327119810129127</v>
+        <v>-0.2222347174533198</v>
       </c>
       <c r="D79">
-        <v>0.6747048428532693</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>0.172912294764912</v>
+      </c>
+      <c r="E79">
+        <v>0.2077916387121735</v>
+      </c>
+      <c r="F79">
+        <v>0.74469495287968</v>
+      </c>
+      <c r="G79">
+        <v>0.4411110414230955</v>
+      </c>
+      <c r="H79">
+        <v>-0.1562175927273294</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>0.006457479753658688</v>
+        <v>0.009482489894664102</v>
       </c>
       <c r="C80">
-        <v>-0.04311652440398314</v>
+        <v>-0.04561804251050533</v>
       </c>
       <c r="D80">
-        <v>-0.02516420380637546</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>0.00371915267866076</v>
+      </c>
+      <c r="E80">
+        <v>-0.06166273885653135</v>
+      </c>
+      <c r="F80">
+        <v>-0.003343012222725255</v>
+      </c>
+      <c r="G80">
+        <v>-0.02860445612546934</v>
+      </c>
+      <c r="H80">
+        <v>-0.06794671782292462</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>0.09243111389013056</v>
+        <v>0.03133690309921901</v>
       </c>
       <c r="C81">
-        <v>-0.1423048690069387</v>
+        <v>-0.1573803737140936</v>
       </c>
       <c r="D81">
-        <v>0.06914765359759112</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>0.05611064406958472</v>
+      </c>
+      <c r="E81">
+        <v>0.07725026462604338</v>
+      </c>
+      <c r="F81">
+        <v>0.04581822466816967</v>
+      </c>
+      <c r="G81">
+        <v>-0.07517176935803589</v>
+      </c>
+      <c r="H81">
+        <v>0.02576379089536185</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B82">
-        <v>0.1962086857100534</v>
+        <v>0.07930262236492457</v>
       </c>
       <c r="C82">
-        <v>-0.3056279210940157</v>
+        <v>-0.2857893608740969</v>
       </c>
       <c r="D82">
-        <v>0.03747758121768657</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>0.1596618838474864</v>
+      </c>
+      <c r="E82">
+        <v>0.1673330517103043</v>
+      </c>
+      <c r="F82">
+        <v>-0.1443055552375598</v>
+      </c>
+      <c r="G82">
+        <v>-0.171916177773927</v>
+      </c>
+      <c r="H82">
+        <v>0.05256875880967011</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>-0.01238986608466292</v>
+        <v>-0.006983771645546592</v>
       </c>
       <c r="C83">
-        <v>-0.04351379733515983</v>
+        <v>-0.01338788590680033</v>
       </c>
       <c r="D83">
-        <v>-0.0008540006344213205</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.04523272554785152</v>
+      </c>
+      <c r="E83">
+        <v>0.1018317381895022</v>
+      </c>
+      <c r="F83">
+        <v>0.1277874230637995</v>
+      </c>
+      <c r="G83">
+        <v>-0.5436018384671581</v>
+      </c>
+      <c r="H83">
+        <v>-0.746787906747131</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B84">
-        <v>-0.001126439020399853</v>
+        <v>-0.002673379535754059</v>
       </c>
       <c r="C84">
-        <v>-0.004023795557831476</v>
+        <v>-0.02038647042344447</v>
       </c>
       <c r="D84">
-        <v>-0.01022987803183543</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>-0.0355682094677587</v>
+      </c>
+      <c r="E84">
+        <v>-0.03917190833755932</v>
+      </c>
+      <c r="F84">
+        <v>0.04111775560919221</v>
+      </c>
+      <c r="G84">
+        <v>-0.02889635940270181</v>
+      </c>
+      <c r="H84">
+        <v>0.05871395900149606</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>0.1219064365564056</v>
+        <v>0.05558724210251267</v>
       </c>
       <c r="C85">
-        <v>-0.1626577297919717</v>
+        <v>-0.178188695839312</v>
       </c>
       <c r="D85">
-        <v>0.09035725825252781</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>0.1161620807836751</v>
+      </c>
+      <c r="E85">
+        <v>0.06816210363943373</v>
+      </c>
+      <c r="F85">
+        <v>0.03183844957207432</v>
+      </c>
+      <c r="G85">
+        <v>-0.01770413571083886</v>
+      </c>
+      <c r="H85">
+        <v>0.03703310186040067</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>0.02639456746098396</v>
+        <v>0.01629560165434986</v>
       </c>
       <c r="C86">
-        <v>-0.01171976637135668</v>
+        <v>-0.04529825996424313</v>
       </c>
       <c r="D86">
-        <v>-0.07675704673560725</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.08472133820162493</v>
+      </c>
+      <c r="E86">
+        <v>-0.03630786768472971</v>
+      </c>
+      <c r="F86">
+        <v>0.06025007871145686</v>
+      </c>
+      <c r="G86">
+        <v>-0.02832551018000242</v>
+      </c>
+      <c r="H86">
+        <v>0.0628180586798199</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>0.02321483141234969</v>
+        <v>0.01222361851126735</v>
       </c>
       <c r="C87">
-        <v>-0.04046209045382528</v>
+        <v>-0.06885139584192138</v>
       </c>
       <c r="D87">
-        <v>-0.1123216637993277</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.09358609445116728</v>
+      </c>
+      <c r="E87">
+        <v>-0.0898775768740744</v>
+      </c>
+      <c r="F87">
+        <v>0.06363409818788571</v>
+      </c>
+      <c r="G87">
+        <v>-0.06135744586642605</v>
+      </c>
+      <c r="H87">
+        <v>0.03451892932484528</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>0.04189860981535447</v>
+        <v>0.034038234221145</v>
       </c>
       <c r="C88">
-        <v>-0.05700949933881307</v>
+        <v>-0.0727215758959819</v>
       </c>
       <c r="D88">
-        <v>0.002630035834434236</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.0006763842396956634</v>
+      </c>
+      <c r="E88">
+        <v>-0.02926576940057593</v>
+      </c>
+      <c r="F88">
+        <v>0.01512268720238616</v>
+      </c>
+      <c r="G88">
+        <v>0.01094349304140322</v>
+      </c>
+      <c r="H88">
+        <v>0.002088362386391198</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>0.3593299995821656</v>
+        <v>0.4005303397241701</v>
       </c>
       <c r="C89">
-        <v>0.2796375632803901</v>
+        <v>0.1612974983764607</v>
       </c>
       <c r="D89">
-        <v>-0.003170121165555709</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>-0.04780685550541178</v>
+      </c>
+      <c r="E89">
+        <v>0.004526681166448374</v>
+      </c>
+      <c r="F89">
+        <v>0.06671804404213914</v>
+      </c>
+      <c r="G89">
+        <v>-0.08777999801296976</v>
+      </c>
+      <c r="H89">
+        <v>-0.08995187630680593</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>0.2825512955443638</v>
+        <v>0.3215921999259918</v>
       </c>
       <c r="C90">
-        <v>0.2011737066728266</v>
+        <v>0.1009597186043177</v>
       </c>
       <c r="D90">
-        <v>-0.06243887668559814</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>-0.03467257202304401</v>
+      </c>
+      <c r="E90">
+        <v>-0.02443459077134948</v>
+      </c>
+      <c r="F90">
+        <v>-0.003793851387643345</v>
+      </c>
+      <c r="G90">
+        <v>-0.04270116254570564</v>
+      </c>
+      <c r="H90">
+        <v>0.01596478593075445</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>0.1295611234552775</v>
+        <v>0.06451001507894424</v>
       </c>
       <c r="C91">
-        <v>-0.2024153999862325</v>
+        <v>-0.1979733489800536</v>
       </c>
       <c r="D91">
-        <v>0.09852773749803539</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.0773896597123008</v>
+      </c>
+      <c r="E91">
+        <v>0.1283407895084753</v>
+      </c>
+      <c r="F91">
+        <v>0.04321529837793042</v>
+      </c>
+      <c r="G91">
+        <v>-0.03794039094269366</v>
+      </c>
+      <c r="H91">
+        <v>0.004023077380766639</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>0.2707642568480165</v>
+        <v>0.3372294038831153</v>
       </c>
       <c r="C92">
-        <v>0.2373517219981815</v>
+        <v>0.1494770396518387</v>
       </c>
       <c r="D92">
-        <v>0.03891337076493981</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>-0.04968243052385207</v>
+      </c>
+      <c r="E92">
+        <v>0.04429689906620647</v>
+      </c>
+      <c r="F92">
+        <v>0.06146066812517407</v>
+      </c>
+      <c r="G92">
+        <v>0.01916170332585273</v>
+      </c>
+      <c r="H92">
+        <v>0.1348286169016691</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>0.3025196388596486</v>
+        <v>0.3294861881999749</v>
       </c>
       <c r="C93">
-        <v>0.2133328885887248</v>
+        <v>0.1211830550591756</v>
       </c>
       <c r="D93">
-        <v>0.03184664419285156</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.02707695617120795</v>
+      </c>
+      <c r="E93">
+        <v>0.008065575749608768</v>
+      </c>
+      <c r="F93">
+        <v>0.01330171388516035</v>
+      </c>
+      <c r="G93">
+        <v>0.02435892771615317</v>
+      </c>
+      <c r="H93">
+        <v>0.04024433314432647</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>0.2358826364093441</v>
+        <v>0.1221674599327038</v>
       </c>
       <c r="C94">
-        <v>-0.2783664703388375</v>
+        <v>-0.3012598696242322</v>
       </c>
       <c r="D94">
-        <v>0.1021943886447201</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>0.2493834257037844</v>
+      </c>
+      <c r="E94">
+        <v>0.2282695073941244</v>
+      </c>
+      <c r="F94">
+        <v>-0.1745849732041008</v>
+      </c>
+      <c r="G94">
+        <v>-0.2119630529459626</v>
+      </c>
+      <c r="H94">
+        <v>0.1640499582898872</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>0.002664993290970819</v>
+        <v>0.01379777469710542</v>
       </c>
       <c r="C95">
-        <v>-0.06200072240492122</v>
+        <v>-0.08979245564016471</v>
       </c>
       <c r="D95">
-        <v>-0.09397745494353112</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.135729150301923</v>
+      </c>
+      <c r="E95">
+        <v>0.01161350137932887</v>
+      </c>
+      <c r="F95">
+        <v>-0.05987409881122425</v>
+      </c>
+      <c r="G95">
+        <v>0.04713834921888246</v>
+      </c>
+      <c r="H95">
+        <v>-0.02906591037082438</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,38 +3187,74 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B97">
-        <v>0</v>
+        <v>0.002046636207714681</v>
       </c>
       <c r="C97">
-        <v>0</v>
+        <v>-0.001186490274326739</v>
       </c>
       <c r="D97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>0.001488249479349657</v>
+      </c>
+      <c r="E97">
+        <v>-0.004478940127545065</v>
+      </c>
+      <c r="F97">
+        <v>-0.0001282151524515278</v>
+      </c>
+      <c r="G97">
+        <v>0.001053640281259961</v>
+      </c>
+      <c r="H97">
+        <v>0.00605933052662892</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>0.1416458098996457</v>
+        <v>0.1336779304229555</v>
       </c>
       <c r="C98">
-        <v>-0.1023868689686548</v>
+        <v>-0.1647282239744212</v>
       </c>
       <c r="D98">
-        <v>-0.127751504517886</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>0.02536595044556439</v>
+      </c>
+      <c r="E98">
+        <v>-0.1647573767279541</v>
+      </c>
+      <c r="F98">
+        <v>-0.2554154886565114</v>
+      </c>
+      <c r="G98">
+        <v>0.2533226110719274</v>
+      </c>
+      <c r="H98">
+        <v>-0.2101669661204036</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +3265,22 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +3291,74 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>0.002431568132624213</v>
+        <v>0.002770709567799514</v>
       </c>
       <c r="C101">
-        <v>-0.02182279739361906</v>
+        <v>-0.04274323190959575</v>
       </c>
       <c r="D101">
-        <v>-0.06141494537031131</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.04476835456331477</v>
+      </c>
+      <c r="E101">
+        <v>-0.1187968079553355</v>
+      </c>
+      <c r="F101">
+        <v>0.0442047571803262</v>
+      </c>
+      <c r="G101">
+        <v>-0.01201065058053844</v>
+      </c>
+      <c r="H101">
+        <v>-0.05292067053415454</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B102">
-        <v>0.07849951600867212</v>
+        <v>0.01824167823295868</v>
       </c>
       <c r="C102">
-        <v>-0.1649678230018523</v>
+        <v>-0.1304219599979965</v>
       </c>
       <c r="D102">
-        <v>-0.007283635515318843</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>0.06930550292986966</v>
+      </c>
+      <c r="E102">
+        <v>0.08590705108835198</v>
+      </c>
+      <c r="F102">
+        <v>-0.08450814436362188</v>
+      </c>
+      <c r="G102">
+        <v>-0.06295904905984359</v>
+      </c>
+      <c r="H102">
+        <v>0.007818940281851528</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3369,22 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3393,18 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
         <v>0</v>
       </c>
     </row>
